--- a/TOPSIS/data.xlsx
+++ b/TOPSIS/data.xlsx
@@ -77,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
@@ -165,6 +165,7 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5"/>
   </sheetData>
 </worksheet>
 </file>
--- a/TOPSIS/data.xlsx
+++ b/TOPSIS/data.xlsx
@@ -165,7 +165,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5"/>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/TOPSIS/data.xlsx
+++ b/TOPSIS/data.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>C1</t>
   </si>
@@ -20,19 +20,10 @@
     <t>C3</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
   </si>
 </sst>
 </file>
@@ -77,14 +68,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D4"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -98,19 +87,13 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -118,69 +101,31 @@
       <c r="D2">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4"/>
       <c r="B4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
         <v>3</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TOPSIS/data.xlsx
+++ b/TOPSIS/data.xlsx
@@ -9,21 +9,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>C1</t>
+    <t>Nilai UAS</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>Nilai UTS</t>
   </si>
   <si>
-    <t>C3</t>
+    <t>Praktikum</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>Tugas</t>
   </si>
   <si>
-    <t>A2</t>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>CCC</t>
   </si>
 </sst>
 </file>
@@ -68,12 +74,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -87,45 +94,74 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>3</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
       <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="C4">
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TOPSIS/data.xlsx
+++ b/TOPSIS/data.xlsx
@@ -9,12 +9,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nilai UAS</t>
-  </si>
-  <si>
-    <t>Nilai UTS</t>
   </si>
   <si>
     <t>Praktikum</t>
@@ -74,13 +71,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -94,74 +90,59 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
         <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
         <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5"/>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>4</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
